--- a/data/trans_camb/P57_AC_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>12.08157596912594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.660389473063375</v>
+        <v>3.660389473063386</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.772479424733579</v>
@@ -655,7 +655,7 @@
         <v>16.30405279319393</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.197201922964879</v>
+        <v>7.197201922964869</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.349164632413913</v>
@@ -664,7 +664,7 @@
         <v>14.66969703580003</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.866584223910132</v>
+        <v>5.866584223910154</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.835407332445634</v>
+        <v>-9.318118486999889</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.310826391407954</v>
+        <v>7.753125387290207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.165232197386151</v>
+        <v>-2.123044151593024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.777494676171063</v>
+        <v>1.785190710350945</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>12.515805361363</v>
+        <v>12.41634401165522</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.84242049553606</v>
+        <v>2.539317833892259</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.612567085795426</v>
+        <v>-1.616305536690466</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>11.96588990638013</v>
+        <v>11.64535075060262</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.399992641229897</v>
+        <v>2.137471631653173</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.052734319682568</v>
+        <v>0.2241639952947403</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.0843416770237</v>
+        <v>16.52205806333934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.1949606285779</v>
+        <v>9.418035959287518</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.39448398379322</v>
+        <v>9.756150715856869</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>20.13210037920182</v>
+        <v>20.10451093324581</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.80187106837065</v>
+        <v>11.5804614166268</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.352905003078343</v>
+        <v>4.219468406733613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.60285555158679</v>
+        <v>17.37862313720741</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.801559532112963</v>
+        <v>9.405621301559536</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1682322598478235</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0509698067992355</v>
+        <v>0.05096980679923566</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.08547933383979962</v>
@@ -760,7 +760,7 @@
         <v>0.2414317088216323</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.10657673776186</v>
+        <v>0.1065767377618598</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.01949821784538496</v>
@@ -769,7 +769,7 @@
         <v>0.2120074464285797</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.08478426906391444</v>
+        <v>0.08478426906391476</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1188356811010678</v>
+        <v>-0.1245237294707063</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09899341008427695</v>
+        <v>0.1029757010243035</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03017590393917716</v>
+        <v>-0.02830458394008947</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02601322880566771</v>
+        <v>0.02503672237973137</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1785221529112641</v>
+        <v>0.176649674943479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04084041853974926</v>
+        <v>0.03640076905972275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.02283299492153969</v>
+        <v>-0.02257777952963896</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.168285727954283</v>
+        <v>0.1629476640228436</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03383842515444768</v>
+        <v>0.03042664064297404</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01637198408189367</v>
+        <v>0.00353385326325717</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2340623472688453</v>
+        <v>0.2403195013405476</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1451744818811529</v>
+        <v>0.1360679274465985</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.161208816163645</v>
+        <v>0.1489701313250978</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3089896464392651</v>
+        <v>0.309196280926247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1789409006997375</v>
+        <v>0.177087787897967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06498351526044714</v>
+        <v>0.06361606952432472</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2619290043954317</v>
+        <v>0.2587874194180917</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1449402339538595</v>
+        <v>0.1399388147503266</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>12.00093228971473</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.4637181421161762</v>
+        <v>-0.4637181421161651</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.182323129899155</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.101181035190637</v>
+        <v>-4.672690195114571</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.342460250319116</v>
+        <v>9.268289621082902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2367177493813031</v>
+        <v>0.0001274824042934273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4354658645569303</v>
+        <v>0.1107668757195815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.693061294950418</v>
+        <v>8.665846322230243</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.75523445024549</v>
+        <v>-3.639803939249073</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5383366267381826</v>
+        <v>-0.4796432188974427</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.20963519541039</v>
+        <v>10.062527679115</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.591134129414399</v>
+        <v>-0.4749782238543213</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.769485095749249</v>
+        <v>3.996266039579611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.92506504454464</v>
+        <v>17.31801845262445</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.437355170418551</v>
+        <v>8.729946900967727</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.18344377055884</v>
+        <v>8.019536854768932</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.80519517302484</v>
+        <v>15.92261392706716</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.505148762465976</v>
+        <v>3.397607158857091</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.232826448316084</v>
+        <v>5.251605626347938</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.43426056694635</v>
+        <v>15.32579017009257</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.919946376468674</v>
+        <v>5.064216680601425</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1666365101415285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.006438864167059621</v>
+        <v>-0.006438864167059468</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.031407324075286</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07338053418608695</v>
+        <v>-0.06818102172715576</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1358923505010067</v>
+        <v>0.1344574522434969</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.003730657569584506</v>
+        <v>0.0003721026811817204</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.005735687130468283</v>
+        <v>0.00143001097254886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1178806328450167</v>
+        <v>0.1166138283220744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05066573176703197</v>
+        <v>-0.0493931885646273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.007853120978509877</v>
+        <v>-0.006384505681096422</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1449614781935455</v>
+        <v>0.141836650412739</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.00817390555920133</v>
+        <v>-0.006481665587469512</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05754022622093236</v>
+        <v>0.0614916234494088</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2658496413694934</v>
+        <v>0.2678627994744766</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1450358172804796</v>
+        <v>0.1355429575930972</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1162997724952777</v>
+        <v>0.1151361710381461</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2257595872641884</v>
+        <v>0.2301206133432185</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04992798475331089</v>
+        <v>0.04882320030582249</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07688843998712318</v>
+        <v>0.07700944334885207</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2267480955653353</v>
+        <v>0.2249668087838914</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.07250676844747107</v>
+        <v>0.07507880633100418</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>7.14958228071424</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-14.71137381608737</v>
+        <v>-14.71137381608738</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.766108692234659</v>
@@ -1092,7 +1092,7 @@
         <v>9.96276848960288</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-11.03238745303116</v>
+        <v>-11.03238745303114</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.960569973709478</v>
+        <v>-1.360419619022766</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.18372543396451</v>
+        <v>8.662710267914109</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.3373012592752</v>
+        <v>-12.16383996658542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.470440969314248</v>
+        <v>-1.495209737931174</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.379390393462343</v>
+        <v>3.329619438635099</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.02195190023697</v>
+        <v>-18.60098249396485</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.4061597772438854</v>
+        <v>-0.5051001749633305</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.129168714675716</v>
+        <v>7.160420725306984</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-14.3373900589151</v>
+        <v>-14.08273778805832</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.977687793734957</v>
+        <v>7.031000599791974</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.53091928970766</v>
+        <v>16.64982819230982</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.218045219626128</v>
+        <v>-3.39504071054821</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.384360195052014</v>
+        <v>6.429476127815892</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.77626350043131</v>
+        <v>11.52194673734285</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-11.00994895298085</v>
+        <v>-10.69960948975705</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.59487956105338</v>
+        <v>5.77548746371255</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.99772625482813</v>
+        <v>12.85979600170194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.235919948808396</v>
+        <v>-8.353598761406603</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.0974589178805591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2005368308746892</v>
+        <v>-0.2005368308746894</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.03976166898427963</v>
@@ -1197,7 +1197,7 @@
         <v>0.1432106785834848</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1585860090188137</v>
+        <v>-0.1585860090188136</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02765706893891499</v>
+        <v>-0.02062720974885579</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1190330780011004</v>
+        <v>0.1285752637643129</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1800058936373612</v>
+        <v>-0.1809748637075773</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.01881212390096337</v>
+        <v>-0.01993120991233694</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04476626813688866</v>
+        <v>0.04616405178031428</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2494722792500946</v>
+        <v>-0.2465838849366684</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.006117266602600719</v>
+        <v>-0.006973607022137837</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1003702170841847</v>
+        <v>0.1029747964391509</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2022198647127719</v>
+        <v>-0.2006145477215558</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1093605582270425</v>
+        <v>0.1093667053006315</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2585372349294835</v>
+        <v>0.260114252529475</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.05044292527930303</v>
+        <v>-0.05203369876594649</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08947023533425369</v>
+        <v>0.09005054393469493</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1484125872250246</v>
+        <v>0.1638706858970133</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1531165549409609</v>
+        <v>-0.1501829479725821</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08141561579219829</v>
+        <v>0.08475065334601835</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1916705751041342</v>
+        <v>0.1897552130513896</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1200886589966637</v>
+        <v>-0.1229149407997953</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.22403323292978</v>
+        <v>-16.64676624072603</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.859707943875998</v>
+        <v>-8.998917517291556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-23.16387079660043</v>
+        <v>-23.35393061399911</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.58608832633197</v>
+        <v>-13.40520121069521</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.881130120677273</v>
+        <v>3.294799845493622</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-18.80563779697256</v>
+        <v>-18.59849021924658</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-13.16876936703333</v>
+        <v>-13.28939382426889</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.223069094875821</v>
+        <v>-1.483536178805148</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-19.6041359298209</v>
+        <v>-19.49369015946985</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.12696220975467</v>
+        <v>-4.18460145931375</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.245922700226379</v>
+        <v>3.483256920293708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.90472853832628</v>
+        <v>-12.23849858642797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5580824001595256</v>
+        <v>0.3925429448396317</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>15.81241682215652</v>
+        <v>16.02745798919944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-7.090667968983695</v>
+        <v>-7.031694556793698</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-3.59859539199291</v>
+        <v>-4.067551696860901</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>7.612809836867916</v>
+        <v>7.267849563077207</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.52621089572925</v>
+        <v>-11.12338955398827</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2398173754263013</v>
+        <v>-0.2297573139632124</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1212355160294563</v>
+        <v>-0.1239926555276128</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3171069273734243</v>
+        <v>-0.3209160073490031</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1929619336656221</v>
+        <v>-0.1890961316360562</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0400506380249562</v>
+        <v>0.04643851212900909</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.266960171604367</v>
+        <v>-0.2679965018652306</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1877692365788771</v>
+        <v>-0.1886862783421598</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.01891353495000875</v>
+        <v>-0.02133845807172623</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2746084794947931</v>
+        <v>-0.2763683857255728</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.06434492154621918</v>
+        <v>-0.06264768840641766</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.04978055640717693</v>
+        <v>0.0515709728179502</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1765530935947216</v>
+        <v>-0.1801880750273543</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.007898294429862359</v>
+        <v>0.01007465982443035</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2459201567320662</v>
+        <v>0.2571593471320448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1133578437428779</v>
+        <v>-0.1140732772122744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05338379166237911</v>
+        <v>-0.0616844368721339</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1131503381503346</v>
+        <v>0.1110405392501083</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1752349770898274</v>
+        <v>-0.1695297593284693</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.871417534698093</v>
+        <v>-3.81664572576303</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.830127411529</v>
+        <v>8.853459861944831</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-7.889479004693769</v>
+        <v>-7.789557508293184</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4922056267595962</v>
+        <v>0.4625657916507245</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>9.582351467677059</v>
+        <v>9.230468847827582</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.655505239888686</v>
+        <v>-8.501125629017297</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.169483715032115</v>
+        <v>-1.02083430477908</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.712039034037687</v>
+        <v>9.710666696369548</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.462932869623451</v>
+        <v>-7.562372829337565</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9650944597680589</v>
+        <v>0.7408269879338278</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.23350679028062</v>
+        <v>13.10917386549951</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.751390950259875</v>
+        <v>-2.626928355582426</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.876615421024171</v>
+        <v>4.924857350899447</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.57139819194456</v>
+        <v>13.57064644643188</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-4.572035193825322</v>
+        <v>-4.323729561756132</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.20473143783039</v>
+        <v>2.25666392721995</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.66549878098454</v>
+        <v>12.77715960221136</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-4.147152644322386</v>
+        <v>-4.344984731398102</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05633586056522666</v>
+        <v>-0.0551060577641859</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1281352600581859</v>
+        <v>0.1275276779829499</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1135266308271872</v>
+        <v>-0.1127522843188366</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.006710247829198044</v>
+        <v>0.006417630064416832</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1330217720036006</v>
+        <v>0.1287136531104272</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1208165096397696</v>
+        <v>-0.119375106850159</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01680890025635652</v>
+        <v>-0.01465060850086722</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1386303334866523</v>
+        <v>0.1385655139919119</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1059472137297749</v>
+        <v>-0.1071071603923263</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01423882378273086</v>
+        <v>0.0111413575676543</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1986507922256133</v>
+        <v>0.1954435162006504</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.04127785929172269</v>
+        <v>-0.03914977976591098</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.06999768056829907</v>
+        <v>0.07073460899916161</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1954706023583301</v>
+        <v>0.1950394676665382</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06550371713129771</v>
+        <v>-0.06279137612772899</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.03201244214153377</v>
+        <v>0.03298805913918452</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1852013434419238</v>
+        <v>0.1872032635274007</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.06064214702581271</v>
+        <v>-0.06239054005792013</v>
       </c>
     </row>
     <row r="34">
